--- a/medicine/Enfance/Verne_Chute/Verne_Chute.xlsx
+++ b/medicine/Enfance/Verne_Chute/Verne_Chute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verne Chute, né le 19 mai 1898 près de San Francisco, en Californie, et mort le 1er octobre 1986 à Sun City, en Arizona, est un écrivain américain de littérature policière, de science-fiction, de western et d'ouvrages pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il amorce sa carrière en littérature, à partir du milieu des années 1930, par la publication de nombreuses nouvelles, appartenant surtout au genre du western, dans les pulps comme Startling Stories, Ace-High Western Stories, New Western, Big-Book Western Magazine, Science Fiction Yearbook. Il ne vient au roman qu'après la Seconde Guerre mondiale. La série Mojave Joe appartient à la littérature d'enfance et de jeunesse et trois autres titres, dont deux traduits en français, au roman policier.
 Claude Mesplède dans Les Années Série Noire commente Le Funiculaire des anges comme un roman « emblématique de la réussite ou de l'infortune (c'est affaire de goût) de la collection. Il tente de séduire par les atouts du mystère tout en jouant savamment avec les ficelles du roman noir. »
@@ -545,15 +559,96 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-Série pour la jeunesse Mojave Joe
-Mojave Joe (1950)
-The Return of Mojave Joe (1952), roman réédité en 1966 sous le pseudonyme Dustin C. Scott
-Romans policiers
-Flight of an Angel (1946) Publié en français sous le titre Le Funiculaire des anges, Paris, Gallimard, Série blême no 7, 1950 ; réédition, Paris, Gallimard, Série noire no 1609, 1973
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série pour la jeunesse Mojave Joe</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mojave Joe (1950)
+The Return of Mojave Joe (1952), roman réédité en 1966 sous le pseudonyme Dustin C. Scott</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verne_Chute</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verne_Chute</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Flight of an Angel (1946) Publié en français sous le titre Le Funiculaire des anges, Paris, Gallimard, Série blême no 7, 1950 ; réédition, Paris, Gallimard, Série noire no 1609, 1973
 Wayward Angel (1948), roman réédité en 1951 sous le titre Blackmail Publié en français sous le titre Maldonne, Paris, Gallimard, Série noire no 76, 1951
-Sweet and Deadly: a detective novel (1952)
-Nouvelles
+Sweet and Deadly: a detective novel (1952)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Verne_Chute</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verne_Chute</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The No-Gun Kid (1936)
 Shorthorn Long Shot (1938)
 Pals (1939)
@@ -594,34 +689,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Verne_Chute</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Verne_Chute</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À la télévision
-1988 : Le Funiculaire des anges, téléfilm français réalisé par Roger Gillioz pour la série télévisée Série noire, avec Bernard Rosselli et Gabrielle Lazure</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1988 : Le Funiculaire des anges, téléfilm français réalisé par Roger Gillioz pour la série télévisée Série noire, avec Bernard Rosselli et Gabrielle Lazure</t>
         </is>
       </c>
     </row>
